--- a/biology/Zoologie/Anomalodesmata/Anomalodesmata.xlsx
+++ b/biology/Zoologie/Anomalodesmata/Anomalodesmata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Anomalodesmata est un taxon de mollusques bivalves.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces mollusques ont des valves à peu près égales et souvent garnies intérieurement de nacre.
-Les premiers membres connus de cet ordre sont apparus au milieu de l'Ordovicien[1]. 
-Cet ordre est parfois promu au rang de super-ordre (notamment par World Register of Marine Species                               (6 novembre 2014)[2]), synonyme des Pholadomyidae, mais passe toujours directement aux super-familles.
+Les premiers membres connus de cet ordre sont apparus au milieu de l'Ordovicien. 
+Cet ordre est parfois promu au rang de super-ordre (notamment par World Register of Marine Species                               (6 novembre 2014)), synonyme des Pholadomyidae, mais passe toujours directement aux super-familles.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (6 novembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (6 novembre 2014) :
 super-famille Clavagelloidea d'Orbigny, 1844
 famille Clavagellidae d'Orbigny, 1844
 famille Penicillidae Bruguière, 1789
